--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S5/S5_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S5/S5_dampingfactor.xlsx
@@ -14,252 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>92.54463840399002</t>
-  </si>
-  <si>
-    <t>94.21778886118038</t>
-  </si>
-  <si>
-    <t>95.64488778054863</t>
-  </si>
-  <si>
-    <t>95.79251870324188</t>
-  </si>
-  <si>
-    <t>97.23475925570688</t>
-  </si>
-  <si>
-    <t>98.87005563015538</t>
-  </si>
-  <si>
-    <t>100.04100858963702</t>
-  </si>
-  <si>
-    <t>101.18104738154614</t>
-  </si>
-  <si>
-    <t>102.4359102244389</t>
-  </si>
-  <si>
-    <t>103.60055417013022</t>
-  </si>
-  <si>
-    <t>104.61346633416458</t>
-  </si>
-  <si>
-    <t>105.68379052369076</t>
-  </si>
-  <si>
-    <t>106.96817955112219</t>
-  </si>
-  <si>
-    <t>108.48877805486283</t>
-  </si>
-  <si>
-    <t>110.11271820448877</t>
-  </si>
-  <si>
-    <t>111.73665835411471</t>
-  </si>
-  <si>
-    <t>113.36059850374065</t>
-  </si>
-  <si>
-    <t>114.98453865336657</t>
-  </si>
-  <si>
-    <t>116.62324189526184</t>
-  </si>
-  <si>
-    <t>118.23241895261845</t>
-  </si>
-  <si>
-    <t>119.85635910224438</t>
-  </si>
-  <si>
-    <t>121.48029925187032</t>
-  </si>
-  <si>
-    <t>123.05995012468827</t>
-  </si>
-  <si>
-    <t>124.7281795511222</t>
-  </si>
-  <si>
-    <t>126.30290939318371</t>
-  </si>
-  <si>
-    <t>127.97605985037406</t>
-  </si>
-  <si>
-    <t>129.6</t>
-  </si>
-  <si>
-    <t>131.22394014962595</t>
-  </si>
-  <si>
-    <t>132.84788029925187</t>
-  </si>
-  <si>
-    <t>134.4718204488778</t>
-  </si>
-  <si>
-    <t>136.09576059850374</t>
-  </si>
-  <si>
-    <t>137.71970074812967</t>
-  </si>
-  <si>
-    <t>139.34364089775562</t>
-  </si>
-  <si>
-    <t>140.92329177057354</t>
-  </si>
-  <si>
-    <t>142.6062842892768</t>
-  </si>
-  <si>
-    <t>144.2154613466334</t>
-  </si>
-  <si>
-    <t>145.83940149625934</t>
-  </si>
-  <si>
-    <t>147.4633416458853</t>
-  </si>
-  <si>
-    <t>149.08728179551122</t>
-  </si>
-  <si>
-    <t>150.15022443890274</t>
-  </si>
-  <si>
-    <t>0.019209195099912785</t>
-  </si>
-  <si>
-    <t>0.02113662514383328</t>
-  </si>
-  <si>
-    <t>0.02563197787599376</t>
-  </si>
-  <si>
-    <t>0.02304155432491901</t>
-  </si>
-  <si>
-    <t>0.030088825424025953</t>
-  </si>
-  <si>
-    <t>0.038150415105767096</t>
-  </si>
-  <si>
-    <t>0.04783725014357563</t>
-  </si>
-  <si>
-    <t>0.06252429386362693</t>
-  </si>
-  <si>
-    <t>0.08018355502643831</t>
-  </si>
-  <si>
-    <t>0.10082283546460857</t>
-  </si>
-  <si>
-    <t>0.12251029126504553</t>
-  </si>
-  <si>
-    <t>0.1490712248681853</t>
-  </si>
-  <si>
-    <t>0.19262658010751024</t>
-  </si>
-  <si>
-    <t>0.2397388883238739</t>
-  </si>
-  <si>
-    <t>0.286230879076095</t>
-  </si>
-  <si>
-    <t>0.3219557227892827</t>
-  </si>
-  <si>
-    <t>0.34750585083266067</t>
-  </si>
-  <si>
-    <t>0.36085472780440164</t>
-  </si>
-  <si>
-    <t>0.35900831319223075</t>
-  </si>
-  <si>
-    <t>0.3620503498423892</t>
-  </si>
-  <si>
-    <t>0.3601686644303408</t>
-  </si>
-  <si>
-    <t>0.3470894143201455</t>
-  </si>
-  <si>
-    <t>0.3461989913358444</t>
-  </si>
-  <si>
-    <t>0.342496328868524</t>
-  </si>
-  <si>
-    <t>0.3327387698841048</t>
-  </si>
-  <si>
-    <t>0.3326293281163639</t>
-  </si>
-  <si>
-    <t>0.3321702422895568</t>
-  </si>
-  <si>
-    <t>0.3277153351593919</t>
-  </si>
-  <si>
-    <t>0.3295667973857045</t>
-  </si>
-  <si>
-    <t>0.3226474581013235</t>
-  </si>
-  <si>
-    <t>0.32173533080917777</t>
-  </si>
-  <si>
-    <t>0.3227218426950131</t>
-  </si>
-  <si>
-    <t>0.31954713252544303</t>
-  </si>
-  <si>
-    <t>0.3178891124198256</t>
-  </si>
-  <si>
-    <t>0.32298857759603955</t>
-  </si>
-  <si>
-    <t>0.3231191522593795</t>
-  </si>
-  <si>
-    <t>0.32940263964507005</t>
-  </si>
-  <si>
-    <t>0.3293333979741261</t>
-  </si>
-  <si>
-    <t>0.33451802916978773</t>
-  </si>
-  <si>
-    <t>0.3261074978111209</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -632,323 +392,323 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
+      <c r="A2">
+        <v>92.54463840399002</v>
+      </c>
+      <c r="B2">
+        <v>0.01920919509991278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
+      <c r="A3">
+        <v>94.21778886118038</v>
+      </c>
+      <c r="B3">
+        <v>0.02113662514383328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
+      <c r="A4">
+        <v>95.64488778054863</v>
+      </c>
+      <c r="B4">
+        <v>0.02563197787599376</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
+      <c r="A5">
+        <v>95.79251870324188</v>
+      </c>
+      <c r="B5">
+        <v>0.02304155432491901</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
+      <c r="A6">
+        <v>97.23475925570688</v>
+      </c>
+      <c r="B6">
+        <v>0.03008882542402595</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
+      <c r="A7">
+        <v>98.87005563015538</v>
+      </c>
+      <c r="B7">
+        <v>0.0381504151057671</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
+      <c r="A8">
+        <v>100.041008589637</v>
+      </c>
+      <c r="B8">
+        <v>0.04783725014357563</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
+      <c r="A9">
+        <v>101.1810473815461</v>
+      </c>
+      <c r="B9">
+        <v>0.06252429386362693</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
+      <c r="A10">
+        <v>102.4359102244389</v>
+      </c>
+      <c r="B10">
+        <v>0.08018355502643831</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
+      <c r="A11">
+        <v>103.6005541701302</v>
+      </c>
+      <c r="B11">
+        <v>0.1008228354646086</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
+      <c r="A12">
+        <v>104.6134663341646</v>
+      </c>
+      <c r="B12">
+        <v>0.1225102912650455</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
+      <c r="A13">
+        <v>105.6837905236908</v>
+      </c>
+      <c r="B13">
+        <v>0.1490712248681853</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
+      <c r="A14">
+        <v>106.9681795511222</v>
+      </c>
+      <c r="B14">
+        <v>0.1926265801075102</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
+      <c r="A15">
+        <v>108.4887780548628</v>
+      </c>
+      <c r="B15">
+        <v>0.2397388883238739</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
+      <c r="A16">
+        <v>110.1127182044888</v>
+      </c>
+      <c r="B16">
+        <v>0.286230879076095</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
+      <c r="A17">
+        <v>111.7366583541147</v>
+      </c>
+      <c r="B17">
+        <v>0.3219557227892827</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
+      <c r="A18">
+        <v>113.3605985037406</v>
+      </c>
+      <c r="B18">
+        <v>0.3475058508326607</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
+      <c r="A19">
+        <v>114.9845386533666</v>
+      </c>
+      <c r="B19">
+        <v>0.3608547278044016</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
+      <c r="A20">
+        <v>116.6232418952618</v>
+      </c>
+      <c r="B20">
+        <v>0.3590083131922308</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
+      <c r="A21">
+        <v>118.2324189526184</v>
+      </c>
+      <c r="B21">
+        <v>0.3620503498423892</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
+      <c r="A22">
+        <v>119.8563591022444</v>
+      </c>
+      <c r="B22">
+        <v>0.3601686644303408</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
+      <c r="A23">
+        <v>121.4802992518703</v>
+      </c>
+      <c r="B23">
+        <v>0.3470894143201455</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
+      <c r="A24">
+        <v>123.0599501246883</v>
+      </c>
+      <c r="B24">
+        <v>0.3461989913358444</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
+      <c r="A25">
+        <v>124.7281795511222</v>
+      </c>
+      <c r="B25">
+        <v>0.342496328868524</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
+      <c r="A26">
+        <v>126.3029093931837</v>
+      </c>
+      <c r="B26">
+        <v>0.3327387698841048</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
+      <c r="A27">
+        <v>127.9760598503741</v>
+      </c>
+      <c r="B27">
+        <v>0.3326293281163639</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
+      <c r="A28">
+        <v>129.6</v>
+      </c>
+      <c r="B28">
+        <v>0.3321702422895568</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
+      <c r="A29">
+        <v>131.2239401496259</v>
+      </c>
+      <c r="B29">
+        <v>0.3277153351593919</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
+      <c r="A30">
+        <v>132.8478802992519</v>
+      </c>
+      <c r="B30">
+        <v>0.3295667973857045</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
+      <c r="A31">
+        <v>134.4718204488778</v>
+      </c>
+      <c r="B31">
+        <v>0.3226474581013235</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
+      <c r="A32">
+        <v>136.0957605985037</v>
+      </c>
+      <c r="B32">
+        <v>0.3217353308091778</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
+      <c r="A33">
+        <v>137.7197007481297</v>
+      </c>
+      <c r="B33">
+        <v>0.3227218426950131</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
+      <c r="A34">
+        <v>139.3436408977556</v>
+      </c>
+      <c r="B34">
+        <v>0.319547132525443</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
+      <c r="A35">
+        <v>140.9232917705735</v>
+      </c>
+      <c r="B35">
+        <v>0.3178891124198256</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
+      <c r="A36">
+        <v>142.6062842892768</v>
+      </c>
+      <c r="B36">
+        <v>0.3229885775960395</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
+      <c r="A37">
+        <v>144.2154613466334</v>
+      </c>
+      <c r="B37">
+        <v>0.3231191522593795</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
+      <c r="A38">
+        <v>145.8394014962593</v>
+      </c>
+      <c r="B38">
+        <v>0.3294026396450701</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
+      <c r="A39">
+        <v>147.4633416458853</v>
+      </c>
+      <c r="B39">
+        <v>0.3293333979741261</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
+      <c r="A40">
+        <v>149.0872817955112</v>
+      </c>
+      <c r="B40">
+        <v>0.3345180291697877</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
+      <c r="A41">
+        <v>150.1502244389027</v>
+      </c>
+      <c r="B41">
+        <v>0.3261074978111209</v>
       </c>
     </row>
   </sheetData>
